--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5577D98-1F4B-664A-9451-0512C7000728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD00812-50C0-F94C-BDDE-8DF25A57653A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A81" sqref="A81:XFD88"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD00812-50C0-F94C-BDDE-8DF25A57653A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{792FC067-7C2E-C540-80B6-5B252E6A8B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="182">
   <si>
     <t>LỚP HỌC</t>
   </si>
@@ -547,20 +547,65 @@
 It will be quick. Let’s go together!</t>
   </si>
   <si>
-    <t>Do you like studying English?</t>
-  </si>
-  <si>
-    <t>How often do you study English?</t>
-  </si>
-  <si>
     <t>LEARNING ENGLISH</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>1. Do you like studying English?</t>
+  </si>
+  <si>
+    <t>2. How often do you study English?</t>
+  </si>
+  <si>
+    <t>3. How do you study English?</t>
+  </si>
+  <si>
+    <t>4. Why do you study English?</t>
+  </si>
+  <si>
+    <t>5. What do you find most difficult when learning English?</t>
+  </si>
+  <si>
+    <t>1. When is your birthday?</t>
+  </si>
+  <si>
+    <t>2. What do you often do on your birthday?</t>
+  </si>
+  <si>
+    <t>3. What gifts do you want to receive on your birthday?</t>
+  </si>
+  <si>
+    <t>4. Where do you want to have your birthday party?</t>
+  </si>
+  <si>
+    <t>5. What do you often have for your birthday party?</t>
+  </si>
+  <si>
+    <t>1. What kind of music do you like?</t>
+  </si>
+  <si>
+    <t>2. Who is your favorite singer?</t>
+  </si>
+  <si>
+    <t>3. Why do you like listening to music?</t>
+  </si>
+  <si>
+    <t>4. When do you listen to music?</t>
+  </si>
+  <si>
+    <t>5. Where do you listen to music?</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,20 +638,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF081C36"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -652,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -665,8 +696,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD88"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2351,11 +2381,11 @@
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,11 +2395,193 @@
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>166</v>
+      <c r="C80" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>165</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792FC067-7C2E-C540-80B6-5B252E6A8B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8258071-34D1-C443-853D-002EEAC64DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1038,7 +1045,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8258071-34D1-C443-853D-002EEAC64DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9765406F-5CCA-604A-8094-73CBDB3DA3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
